--- a/pkg/inst/extdata/unify_db_names.xlsx
+++ b/pkg/inst/extdata/unify_db_names.xlsx
@@ -332,13 +332,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -622,412 +629,413 @@
   <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="40.5546875" customWidth="1"/>
-    <col min="2" max="2" width="20.88671875" customWidth="1"/>
+    <col min="1" max="1" width="40.5546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="4" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="4" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="4" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="4" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="4" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="4" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="4" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="4" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="4" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="4" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="4" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="4" t="s">
         <v>81</v>
       </c>
     </row>
